--- a/tunnel-business/src/main/resources/exporttemplate/设备点位数据.xlsx
+++ b/tunnel-business/src/main/resources/exporttemplate/设备点位数据.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="244">
   <si>
     <t>设备id</t>
   </si>
@@ -28,9 +28,6 @@
     <t>设备类型</t>
   </si>
   <si>
-    <t>功能</t>
-  </si>
-  <si>
     <t>数据项编号</t>
   </si>
   <si>
@@ -47,15 +44,6 @@
   </si>
   <si>
     <t>数据长度（字节数）</t>
-  </si>
-  <si>
-    <t>信号名称</t>
-  </si>
-  <si>
-    <t>设备状态</t>
-  </si>
-  <si>
-    <t>数据状态</t>
   </si>
   <si>
     <t>是否预留</t>
@@ -1767,24 +1755,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="30.7166666666667" style="7" customWidth="1"/>
-    <col min="2" max="2" width="16.7166666666667" style="7" customWidth="1"/>
-    <col min="3" max="3" width="30.7166666666667" style="7" customWidth="1"/>
-    <col min="4" max="13" width="16.7166666666667" style="7" customWidth="1"/>
-    <col min="14" max="15" width="42.7166666666667" style="7" customWidth="1"/>
-    <col min="16" max="16" width="16.7166666666667" style="7" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="7"/>
+    <col min="2" max="9" width="16.7166666666667" style="7" customWidth="1"/>
+    <col min="10" max="11" width="42.7166666666667" style="7" customWidth="1"/>
+    <col min="12" max="12" width="16.7166666666667" style="7" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" spans="1:16">
+    <row r="1" s="7" customFormat="1" spans="1:12">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1820,18 +1806,6 @@
       </c>
       <c r="L1" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" ht="100" customHeight="1"/>
@@ -1897,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1905,7 +1879,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1913,7 +1887,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1921,7 +1895,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1929,7 +1903,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1937,7 +1911,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1945,7 +1919,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1953,7 +1927,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1961,7 +1935,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1969,7 +1943,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1977,7 +1951,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1985,7 +1959,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1993,7 +1967,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2001,7 +1975,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2009,7 +1983,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2017,7 +1991,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2025,7 +1999,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2033,7 +2007,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2041,7 +2015,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2049,7 +2023,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2057,7 +2031,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2065,7 +2039,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2073,7 +2047,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2081,7 +2055,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2089,7 +2063,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2097,7 +2071,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2105,7 +2079,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2113,7 +2087,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2121,7 +2095,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2129,7 +2103,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2137,7 +2111,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2145,7 +2119,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2153,7 +2127,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2161,7 +2135,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2169,7 +2143,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2177,7 +2151,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2185,7 +2159,7 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2193,7 +2167,7 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -2201,7 +2175,7 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2209,7 +2183,7 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2217,7 +2191,7 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2225,7 +2199,7 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2233,7 +2207,7 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2241,7 +2215,7 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2249,7 +2223,7 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2257,7 +2231,7 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2265,7 +2239,7 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2273,7 +2247,7 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2281,7 +2255,7 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2289,7 +2263,7 @@
         <v>1030</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2297,7 +2271,7 @@
         <v>1031</v>
       </c>
       <c r="B51" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2305,7 +2279,7 @@
         <v>1046</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2331,82 +2305,82 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2435,7 +2409,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2443,7 +2417,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2451,7 +2425,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2459,7 +2433,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2467,7 +2441,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2475,7 +2449,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2483,7 +2457,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2491,7 +2465,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2499,7 +2473,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2507,7 +2481,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2515,7 +2489,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2523,7 +2497,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2531,7 +2505,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2539,7 +2513,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2547,7 +2521,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2555,7 +2529,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2563,7 +2537,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2571,7 +2545,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2579,7 +2553,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2587,7 +2561,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2595,7 +2569,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2603,7 +2577,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2611,7 +2585,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2619,7 +2593,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2627,7 +2601,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2635,7 +2609,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2661,498 +2635,498 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B17" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B20" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B25" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B26" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B29" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B30" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B31" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B32" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B33" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B34" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B35" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B36" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B37" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B38" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B39" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B40" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B41" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B42" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="5" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B43" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B44" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="5" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B45" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B46" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B47" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B48" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B49" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="5" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B50" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B51" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B52" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B53" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B54" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B55" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B56" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B57" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B58" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B59" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B60" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B61" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B62" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3180,7 +3154,7 @@
         <v>140</v>
       </c>
       <c r="B1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3188,7 +3162,7 @@
         <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3196,7 +3170,7 @@
         <v>152</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3204,7 +3178,7 @@
         <v>153</v>
       </c>
       <c r="B4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3212,7 +3186,7 @@
         <v>154</v>
       </c>
       <c r="B5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3220,7 +3194,7 @@
         <v>155</v>
       </c>
       <c r="B6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3228,7 +3202,7 @@
         <v>156</v>
       </c>
       <c r="B7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -3259,39 +3233,39 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
@@ -3305,16 +3279,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -3328,16 +3302,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -3351,16 +3325,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E5" s="1">
         <v>3</v>
